--- a/bots/crawl_ch/output/bread_coop_2022-12-13.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O411"/>
+  <dimension ref="A1:O410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5212,7 +5212,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Betty Bossi Butterblätterteig eckig ausgewallt 25x42cm 3.70 Schweizer Franken</t>
+          <t>Betty Bossi Butterblätterteig eckig ausgewallt 25x42cm - Online kein Bestand 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7419,7 +7419,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7488,7 +7488,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8340,7 +8340,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8541,13 +8541,13 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Mini Panettone - Online kein Bestand 20% pro 3 Aktion 1.60 Schweizer Franken</t>
+          <t>Mini Panettone 20% pro 3 Aktion 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8762,7 +8762,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8904,7 +8904,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -8973,7 +8973,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9115,7 +9115,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9549,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9833,7 +9833,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9902,7 +9902,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10040,7 +10040,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10182,7 +10182,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10251,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10320,7 +10320,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10462,7 +10462,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10750,7 +10750,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11184,7 +11184,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11253,7 +11253,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11322,7 +11322,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11529,7 +11529,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11740,7 +11740,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12101,7 +12101,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12170,7 +12170,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12312,7 +12312,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12383,7 +12383,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12452,7 +12452,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12525,7 +12525,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12594,7 +12594,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12667,7 +12667,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12740,7 +12740,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12813,7 +12813,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12882,7 +12882,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -12951,7 +12951,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13024,7 +13024,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13097,7 +13097,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13239,7 +13239,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13308,7 +13308,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13381,7 +13381,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13454,7 +13454,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13527,7 +13527,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13596,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13669,7 +13669,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13738,7 +13738,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13811,7 +13811,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13880,7 +13880,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14026,7 +14026,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14095,7 +14095,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14168,7 +14168,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14241,7 +14241,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14310,7 +14310,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14379,7 +14379,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14452,7 +14452,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14521,7 +14521,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14590,7 +14590,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14659,7 +14659,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14728,7 +14728,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14797,7 +14797,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14870,7 +14870,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -14939,7 +14939,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15012,7 +15012,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15085,7 +15085,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15227,7 +15227,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15296,7 +15296,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15365,7 +15365,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15438,7 +15438,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15511,7 +15511,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15584,7 +15584,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15653,7 +15653,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15726,7 +15726,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15795,7 +15795,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15868,7 +15868,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -15941,7 +15941,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16014,7 +16014,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16087,7 +16087,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16160,7 +16160,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16233,7 +16233,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16302,7 +16302,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16371,7 +16371,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16440,7 +16440,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16513,7 +16513,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16659,7 +16659,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16728,7 +16728,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16801,7 +16801,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16874,7 +16874,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -16943,7 +16943,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17012,7 +17012,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17081,7 +17081,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17150,7 +17150,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17219,7 +17219,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17288,7 +17288,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17357,7 +17357,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17426,7 +17426,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17495,7 +17495,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17562,7 +17562,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17631,7 +17631,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17704,7 +17704,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17846,7 +17846,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17919,7 +17919,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -17988,7 +17988,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18061,7 +18061,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18130,7 +18130,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18203,7 +18203,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18272,7 +18272,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18345,7 +18345,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18414,7 +18414,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18483,7 +18483,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18552,7 +18552,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18625,7 +18625,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18692,7 +18692,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18765,7 +18765,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18834,7 +18834,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18907,7 +18907,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -18976,7 +18976,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19045,7 +19045,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19114,7 +19114,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19187,7 +19187,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19260,7 +19260,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19329,7 +19329,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19398,7 +19398,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19467,7 +19467,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19536,7 +19536,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19609,7 +19609,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19680,7 +19680,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19753,7 +19753,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19822,7 +19822,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -19962,7 +19962,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20031,7 +20031,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20104,7 +20104,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20173,7 +20173,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20246,7 +20246,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20319,7 +20319,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20388,7 +20388,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20457,7 +20457,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20526,7 +20526,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20599,7 +20599,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20818,7 +20818,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20885,7 +20885,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -20958,7 +20958,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21031,7 +21031,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21104,7 +21104,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21173,7 +21173,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21246,7 +21246,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21315,7 +21315,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21388,7 +21388,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21457,7 +21457,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21530,7 +21530,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21603,7 +21603,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21672,7 +21672,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21745,7 +21745,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21814,7 +21814,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21887,7 +21887,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -21956,7 +21956,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22029,7 +22029,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22102,7 +22102,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22175,7 +22175,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22248,7 +22248,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22317,7 +22317,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22386,7 +22386,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22459,7 +22459,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22528,7 +22528,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22601,7 +22601,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22670,7 +22670,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22739,7 +22739,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22885,7 +22885,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -22954,7 +22954,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23023,7 +23023,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23096,7 +23096,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23169,7 +23169,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23238,7 +23238,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23311,7 +23311,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23380,7 +23380,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23449,7 +23449,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23522,7 +23522,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23595,7 +23595,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23664,7 +23664,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23733,7 +23733,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23800,7 +23800,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23873,7 +23873,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -23946,7 +23946,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24015,7 +24015,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24084,7 +24084,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24153,7 +24153,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24222,7 +24222,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24291,7 +24291,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24364,7 +24364,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24433,7 +24433,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24502,7 +24502,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24571,7 +24571,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24644,7 +24644,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24713,7 +24713,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24786,7 +24786,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24855,7 +24855,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24924,7 +24924,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -24993,7 +24993,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25062,7 +25062,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25131,7 +25131,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25200,7 +25200,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25269,7 +25269,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25338,7 +25338,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25411,7 +25411,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25480,7 +25480,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25549,7 +25549,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25622,7 +25622,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25691,7 +25691,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25760,7 +25760,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25833,7 +25833,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25900,7 +25900,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -25969,7 +25969,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26038,7 +26038,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26107,7 +26107,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26176,7 +26176,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26245,7 +26245,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26314,7 +26314,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26381,7 +26381,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26450,7 +26450,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26519,7 +26519,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26588,7 +26588,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26657,7 +26657,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26726,7 +26726,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26799,7 +26799,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26868,7 +26868,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -26941,7 +26941,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27008,7 +27008,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27075,7 +27075,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27148,7 +27148,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27217,7 +27217,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27290,7 +27290,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27359,7 +27359,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27430,7 +27430,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27503,7 +27503,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27576,7 +27576,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27647,7 +27647,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27720,7 +27720,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27789,7 +27789,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27860,7 +27860,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -27933,7 +27933,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28006,7 +28006,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28079,7 +28079,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28148,7 +28148,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28217,7 +28217,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28286,7 +28286,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28353,7 +28353,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28424,7 +28424,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28491,7 +28491,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28560,7 +28560,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28629,7 +28629,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28700,7 +28700,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28767,7 +28767,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28836,7 +28836,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28903,7 +28903,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -28970,7 +28970,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -29039,7 +29039,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -29112,7 +29112,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -29181,7 +29181,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -29250,7 +29250,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -29317,7 +29317,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -29390,7 +29390,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
@@ -29463,80 +29463,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-13 18:16:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>5979603</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>Roland Knäckebrot Zwerghirse</t>
-        </is>
-      </c>
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-zwerghirse/p/5979603</t>
-        </is>
-      </c>
-      <c r="D411" t="n">
-        <v>8</v>
-      </c>
-      <c r="E411" t="n">
-        <v>5</v>
-      </c>
-      <c r="F411" t="inlineStr">
-        <is>
-          <t>Roland</t>
-        </is>
-      </c>
-      <c r="G411" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>0.83/100g</t>
-        </is>
-      </c>
-      <c r="I411" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J411" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
-        </is>
-      </c>
-      <c r="M411" t="inlineStr">
-        <is>
-          <t>Roland Knäckebrot Zwerghirse 50% Aktion 1.65 Schweizer Franken statt 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N411" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
-      <c r="O411" t="inlineStr">
-        <is>
-          <t>2022-12-13 18:16:34</t>
+          <t>2022-12-13 20:49:22</t>
         </is>
       </c>
     </row>
